--- a/webroot/assets/example_surveys/random_choices.xlsx
+++ b/webroot/assets/example_surveys/random_choices.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>cool</t>
   </si>
@@ -100,9 +100,6 @@
     <t>rating_button 5</t>
   </si>
   <si>
-    <t>q1</t>
-  </si>
-  <si>
     <t>q2</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>`r rm(created); 2`</t>
   </si>
   <si>
-    <t>`r rm(created); 3`</t>
-  </si>
-  <si>
     <t>`r  rm(created); 4`</t>
   </si>
   <si>
@@ -182,6 +176,15 @@
   </si>
   <si>
     <t>`r rm(created); 'd'`</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>`r name`</t>
   </si>
 </sst>
 </file>
@@ -796,7 +799,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -852,42 +855,42 @@
         <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="45">
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="45">
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45">
@@ -895,16 +898,16 @@
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45">
@@ -912,16 +915,16 @@
         <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45">
@@ -929,16 +932,16 @@
         <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
@@ -947,16 +950,16 @@
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2">
         <v>6</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45">
@@ -964,16 +967,16 @@
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2">
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16" customHeight="1">
@@ -981,16 +984,16 @@
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2">
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45">
@@ -998,16 +1001,16 @@
         <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2">
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45">
@@ -1015,16 +1018,16 @@
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45">
@@ -1032,16 +1035,16 @@
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2">
         <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
